--- a/doc/protocol 🛰.xlsx
+++ b/doc/protocol 🛰.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\HoopoeWorld\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E241879-AEA4-45FE-B0AD-FB3D8911AFDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A455DB16-D3A9-4BF2-BD4E-C99CBDABCF6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" xr2:uid="{FFE32F7E-1BE1-4BA6-86CD-84D96E41A37B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="371">
   <si>
     <t>פרוטוקול תחנת קרקע -&gt; לוויין</t>
   </si>
@@ -989,15 +989,9 @@
     <t>שולח שבוצעה הפקודה</t>
   </si>
   <si>
-    <t>Type Dump</t>
-  </si>
-  <si>
     <t>number</t>
   </si>
   <si>
-    <t>Type reset</t>
-  </si>
-  <si>
     <t>Type TLM period</t>
   </si>
   <si>
@@ -1146,6 +1140,15 @@
   </si>
   <si>
     <t>טבלת פרמטר, ברירת מחדל, מינימום, מקסימום</t>
+  </si>
+  <si>
+    <t>Reset type</t>
+  </si>
+  <si>
+    <t>Dump type</t>
+  </si>
+  <si>
+    <t>מודיע ששונו</t>
   </si>
 </sst>
 </file>
@@ -1544,21 +1547,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1613,7 +1612,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1621,290 +1619,278 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2254,14 +2240,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{045A4A77-AA63-4493-BDAE-32013FCE3067}">
   <dimension ref="A1:Q175"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="C112" zoomScale="103" workbookViewId="0">
-      <selection activeCell="O134" sqref="O134"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="B117" zoomScale="103" workbookViewId="0">
+      <selection activeCell="F141" sqref="F141:G143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="12.33203125" customWidth="1"/>
-    <col min="2" max="2" width="15.9296875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="15.9296875" style="3" customWidth="1"/>
     <col min="3" max="3" width="11.06640625" customWidth="1"/>
     <col min="4" max="4" width="11.86328125" customWidth="1"/>
     <col min="5" max="5" width="10.19921875" customWidth="1"/>
@@ -2277,2345 +2263,2347 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="21.4" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A1" s="108" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="24"/>
+      <c r="A1" s="109" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="115"/>
+      <c r="C1" s="115"/>
+      <c r="D1" s="115"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="115"/>
     </row>
     <row r="2" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="62" t="s">
+      <c r="G2" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="24"/>
     </row>
     <row r="3" spans="1:8" ht="28.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="114" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="114" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="16">
+      <c r="E3" s="14">
         <v>4</v>
       </c>
-      <c r="F3" s="25" t="s">
+      <c r="F3" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="63" t="s">
+      <c r="G3" s="53" t="s">
         <v>57</v>
       </c>
-      <c r="H3" s="26"/>
+      <c r="H3" s="23"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A4" s="29"/>
-      <c r="B4" s="6" t="s">
+      <c r="A4" s="91"/>
+      <c r="B4" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="12" t="s">
+      <c r="C4" s="91"/>
+      <c r="D4" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="12">
-        <v>0</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="G4" s="56" t="s">
+      <c r="E4" s="10">
+        <v>0</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="H4" s="26"/>
+      <c r="H4" s="23"/>
     </row>
     <row r="5" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A5" s="29"/>
-      <c r="B5" s="44" t="s">
+      <c r="A5" s="91"/>
+      <c r="B5" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="29"/>
-      <c r="D5" s="9" t="s">
+      <c r="C5" s="91"/>
+      <c r="D5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="7">
         <v>4</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="G5" s="57" t="s">
+      <c r="G5" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="H5" s="26"/>
+      <c r="H5" s="23"/>
     </row>
     <row r="6" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A6" s="29"/>
-      <c r="B6" s="6" t="s">
+      <c r="A6" s="91"/>
+      <c r="B6" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="C6" s="29"/>
-      <c r="D6" s="13" t="s">
+      <c r="C6" s="91"/>
+      <c r="D6" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="13">
-        <v>0</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6" s="52" t="s">
+      <c r="E6" s="11">
+        <v>0</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="42" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A7" s="29"/>
-      <c r="B7" s="44" t="s">
+      <c r="A7" s="91"/>
+      <c r="B7" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="29"/>
-      <c r="D7" s="9" t="s">
+      <c r="C7" s="91"/>
+      <c r="D7" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="9">
-        <v>0</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="G7" s="53" t="s">
+      <c r="E7" s="7">
+        <v>0</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="43" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A8" s="29"/>
-      <c r="B8" s="6" t="s">
+      <c r="A8" s="91"/>
+      <c r="B8" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="29"/>
-      <c r="D8" s="13" t="s">
+      <c r="C8" s="91"/>
+      <c r="D8" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="13">
-        <v>0</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="G8" s="52" t="s">
+      <c r="E8" s="11">
+        <v>0</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="42" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A9" s="29"/>
-      <c r="B9" s="44" t="s">
+      <c r="A9" s="91"/>
+      <c r="B9" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="29"/>
-      <c r="D9" s="9" t="s">
+      <c r="C9" s="91"/>
+      <c r="D9" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="9">
-        <v>0</v>
-      </c>
-      <c r="F9" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="G9" s="53" t="s">
+      <c r="E9" s="7">
+        <v>0</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" s="43" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A10" s="29"/>
-      <c r="B10" s="6" t="s">
+      <c r="A10" s="91"/>
+      <c r="B10" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="29"/>
-      <c r="D10" s="13" t="s">
+      <c r="C10" s="91"/>
+      <c r="D10" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E10" s="11">
         <v>4</v>
       </c>
-      <c r="F10" s="11" t="s">
+      <c r="F10" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="G10" s="52" t="s">
+      <c r="G10" s="42" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A11" s="29"/>
-      <c r="B11" s="44" t="s">
+      <c r="A11" s="91"/>
+      <c r="B11" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="C11" s="29"/>
-      <c r="D11" s="9" t="s">
+      <c r="C11" s="91"/>
+      <c r="D11" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="9">
-        <v>0</v>
-      </c>
-      <c r="F11" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="G11" s="53" t="s">
+      <c r="E11" s="7">
+        <v>0</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" s="43" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A12" s="29"/>
-      <c r="B12" s="6" t="s">
+      <c r="A12" s="91"/>
+      <c r="B12" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C12" s="29"/>
-      <c r="D12" s="13" t="s">
+      <c r="C12" s="91"/>
+      <c r="D12" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="13">
+      <c r="E12" s="11">
         <v>4</v>
       </c>
-      <c r="F12" s="11" t="s">
+      <c r="F12" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="G12" s="52" t="s">
+      <c r="G12" s="42" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A13" s="29"/>
-      <c r="B13" s="44" t="s">
+      <c r="A13" s="91"/>
+      <c r="B13" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="C13" s="29"/>
-      <c r="D13" s="9" t="s">
+      <c r="C13" s="91"/>
+      <c r="D13" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E13" s="9">
-        <v>0</v>
-      </c>
-      <c r="F13" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="G13" s="53" t="s">
+      <c r="E13" s="7">
+        <v>0</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" s="43" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A14" s="29"/>
-      <c r="B14" s="6" t="s">
+      <c r="A14" s="91"/>
+      <c r="B14" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="29"/>
-      <c r="D14" s="13" t="s">
+      <c r="C14" s="91"/>
+      <c r="D14" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="13">
+      <c r="E14" s="11">
         <v>2</v>
       </c>
-      <c r="F14" s="11" t="s">
+      <c r="F14" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="G14" s="52" t="s">
+      <c r="G14" s="42" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A15" s="29"/>
-      <c r="B15" s="44" t="s">
+      <c r="A15" s="91"/>
+      <c r="B15" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="C15" s="29"/>
-      <c r="D15" s="9" t="s">
+      <c r="C15" s="91"/>
+      <c r="D15" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E15" s="9">
-        <v>0</v>
-      </c>
-      <c r="F15" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="G15" s="53" t="s">
+      <c r="E15" s="7">
+        <v>0</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G15" s="43" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A16" s="29"/>
-      <c r="B16" s="6" t="s">
+    <row r="16" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A16" s="91"/>
+      <c r="B16" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C16" s="29"/>
-      <c r="D16" s="13" t="s">
+      <c r="C16" s="91"/>
+      <c r="D16" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E16" s="13">
+      <c r="E16" s="11">
         <v>1</v>
       </c>
-      <c r="F16" s="11" t="s">
+      <c r="F16" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="G16" s="52" t="s">
+      <c r="G16" s="42" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A17" s="29"/>
-      <c r="B17" s="44" t="s">
+    <row r="17" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A17" s="91"/>
+      <c r="B17" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="C17" s="29"/>
-      <c r="D17" s="9" t="s">
+      <c r="C17" s="91"/>
+      <c r="D17" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E17" s="9">
-        <v>0</v>
-      </c>
-      <c r="F17" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="G17" s="53" t="s">
+      <c r="E17" s="7">
+        <v>0</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G17" s="43" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A18" s="29"/>
-      <c r="B18" s="6" t="s">
+    <row r="18" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A18" s="91"/>
+      <c r="B18" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C18" s="29"/>
-      <c r="D18" s="13" t="s">
+      <c r="C18" s="91"/>
+      <c r="D18" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="E18" s="13">
-        <v>0</v>
-      </c>
-      <c r="F18" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="G18" s="52" t="s">
+      <c r="E18" s="11">
+        <v>0</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G18" s="42" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A19" s="29"/>
-      <c r="B19" s="44" t="s">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A19" s="91"/>
+      <c r="B19" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="C19" s="29"/>
-      <c r="D19" s="9" t="s">
+      <c r="C19" s="91"/>
+      <c r="D19" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E19" s="9">
-        <v>0</v>
-      </c>
-      <c r="F19" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="G19" s="53" t="s">
+      <c r="E19" s="7">
+        <v>0</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G19" s="43" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A20" s="27" t="s">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A20" s="116" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="31" t="s">
+      <c r="B20" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="C20" s="27" t="s">
+      <c r="C20" s="116" t="s">
         <v>11</v>
       </c>
-      <c r="D20" s="19" t="s">
+      <c r="D20" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E20" s="19">
-        <v>0</v>
-      </c>
-      <c r="F20" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="G20" s="55"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A21" s="27"/>
-      <c r="B21" s="32" t="s">
+      <c r="E20" s="17">
+        <v>0</v>
+      </c>
+      <c r="F20" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="G20" s="45"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A21" s="116"/>
+      <c r="B21" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="C21" s="27"/>
-      <c r="D21" s="30" t="s">
+      <c r="C21" s="116"/>
+      <c r="D21" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="E21" s="30">
+      <c r="E21" s="24">
         <v>4</v>
       </c>
-      <c r="F21" s="30" t="s">
+      <c r="F21" s="24" t="s">
         <v>244</v>
       </c>
-      <c r="G21" s="58" t="s">
+      <c r="G21" s="48" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A22" s="27"/>
-      <c r="B22" s="31" t="s">
+    <row r="22" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A22" s="116"/>
+      <c r="B22" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="C22" s="27"/>
-      <c r="D22" s="19" t="s">
+      <c r="C22" s="116"/>
+      <c r="D22" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E22" s="19">
-        <v>0</v>
-      </c>
-      <c r="F22" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="G22" s="55" t="s">
+      <c r="E22" s="17">
+        <v>0</v>
+      </c>
+      <c r="F22" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="G22" s="45" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A23" s="27"/>
-      <c r="B23" s="32" t="s">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A23" s="116"/>
+      <c r="B23" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="C23" s="27"/>
-      <c r="D23" s="30" t="s">
+      <c r="C23" s="116"/>
+      <c r="D23" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="E23" s="30">
-        <v>0</v>
-      </c>
-      <c r="F23" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="G23" s="58" t="s">
+      <c r="E23" s="24">
+        <v>0</v>
+      </c>
+      <c r="F23" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="G23" s="48" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A24" s="27"/>
-      <c r="B24" s="31" t="s">
+    <row r="24" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A24" s="116"/>
+      <c r="B24" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="C24" s="27"/>
-      <c r="D24" s="19" t="s">
+      <c r="C24" s="116"/>
+      <c r="D24" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E24" s="19">
+      <c r="E24" s="17">
         <v>16</v>
       </c>
-      <c r="F24" s="31" t="s">
+      <c r="F24" s="25" t="s">
         <v>255</v>
       </c>
-      <c r="G24" s="59" t="s">
+      <c r="G24" s="49" t="s">
         <v>258</v>
       </c>
-      <c r="I24" s="5"/>
-    </row>
-    <row r="25" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A25" s="27"/>
-      <c r="B25" s="32" t="s">
+    </row>
+    <row r="25" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A25" s="116"/>
+      <c r="B25" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="C25" s="27"/>
-      <c r="D25" s="30" t="s">
+      <c r="C25" s="116"/>
+      <c r="D25" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="E25" s="30">
-        <v>0</v>
-      </c>
-      <c r="F25" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="G25" s="110" t="s">
+      <c r="E25" s="24">
+        <v>0</v>
+      </c>
+      <c r="F25" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="G25" s="75" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A26" s="27"/>
-      <c r="B26" s="31" t="s">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A26" s="116"/>
+      <c r="B26" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="C26" s="27"/>
-      <c r="D26" s="19" t="s">
+      <c r="C26" s="116"/>
+      <c r="D26" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E26" s="19">
-        <v>0</v>
-      </c>
-      <c r="F26" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="G26" s="55" t="s">
+      <c r="E26" s="17">
+        <v>0</v>
+      </c>
+      <c r="F26" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="G26" s="45" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A27" s="27"/>
-      <c r="B27" s="32" t="s">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A27" s="116"/>
+      <c r="B27" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="C27" s="27"/>
-      <c r="D27" s="30" t="s">
+      <c r="C27" s="116"/>
+      <c r="D27" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="E27" s="30">
-        <v>0</v>
-      </c>
-      <c r="F27" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="G27" s="58" t="s">
+      <c r="E27" s="24">
+        <v>0</v>
+      </c>
+      <c r="F27" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="G27" s="48" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A28" s="27"/>
-      <c r="B28" s="31" t="s">
+    <row r="28" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A28" s="116"/>
+      <c r="B28" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="C28" s="27"/>
-      <c r="D28" s="19" t="s">
+      <c r="C28" s="116"/>
+      <c r="D28" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E28" s="19">
+      <c r="E28" s="17">
         <v>8</v>
       </c>
-      <c r="F28" s="31" t="s">
+      <c r="F28" s="25" t="s">
         <v>261</v>
       </c>
-      <c r="G28" s="59" t="s">
+      <c r="G28" s="49" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A29" s="27"/>
-      <c r="B29" s="46" t="s">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A29" s="116"/>
+      <c r="B29" s="37" t="s">
         <v>76</v>
       </c>
-      <c r="C29" s="27"/>
-      <c r="D29" s="30" t="s">
+      <c r="C29" s="116"/>
+      <c r="D29" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="E29" s="30">
-        <v>0</v>
-      </c>
-      <c r="F29" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="G29" s="58" t="s">
+      <c r="E29" s="24">
+        <v>0</v>
+      </c>
+      <c r="F29" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="G29" s="48" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A30" s="33" t="s">
+    <row r="30" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A30" s="111" t="s">
         <v>7</v>
       </c>
-      <c r="B30" s="31" t="s">
+      <c r="B30" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="C30" s="33" t="s">
+      <c r="C30" s="111" t="s">
         <v>15</v>
       </c>
-      <c r="D30" s="19" t="s">
+      <c r="D30" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E30" s="19">
-        <v>0</v>
-      </c>
-      <c r="F30" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="G30" s="59" t="s">
+      <c r="E30" s="17">
+        <v>0</v>
+      </c>
+      <c r="F30" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="G30" s="49" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A31" s="33"/>
-      <c r="B31" s="36" t="s">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A31" s="111"/>
+      <c r="B31" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="C31" s="33"/>
-      <c r="D31" s="35" t="s">
+      <c r="C31" s="111"/>
+      <c r="D31" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="E31" s="35">
+      <c r="E31" s="27">
         <v>9</v>
       </c>
-      <c r="F31" s="35" t="s">
+      <c r="F31" s="27" t="s">
         <v>264</v>
       </c>
-      <c r="G31" s="60" t="s">
+      <c r="G31" s="50" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A32" s="33"/>
-      <c r="B32" s="31" t="s">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A32" s="111"/>
+      <c r="B32" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="C32" s="33"/>
-      <c r="D32" s="19" t="s">
+      <c r="C32" s="111"/>
+      <c r="D32" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="E32" s="19">
+      <c r="E32" s="17">
         <v>1</v>
       </c>
-      <c r="F32" s="19" t="s">
+      <c r="F32" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="G32" s="55" t="s">
-        <v>368</v>
+      <c r="G32" s="45" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A33" s="33"/>
-      <c r="B33" s="36" t="s">
+      <c r="A33" s="111"/>
+      <c r="B33" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="C33" s="33"/>
-      <c r="D33" s="35" t="s">
+      <c r="C33" s="111"/>
+      <c r="D33" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="E33" s="35">
-        <v>0</v>
-      </c>
-      <c r="F33" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="G33" s="60" t="s">
+      <c r="E33" s="27">
+        <v>0</v>
+      </c>
+      <c r="F33" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="G33" s="50" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A34" s="33"/>
-      <c r="B34" s="31" t="s">
+      <c r="A34" s="111"/>
+      <c r="B34" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="C34" s="33"/>
-      <c r="D34" s="19" t="s">
+      <c r="C34" s="111"/>
+      <c r="D34" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="E34" s="19">
+      <c r="E34" s="17">
         <v>5</v>
       </c>
-      <c r="F34" s="19" t="s">
+      <c r="F34" s="17" t="s">
         <v>272</v>
       </c>
-      <c r="G34" s="55" t="s">
+      <c r="G34" s="45" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A35" s="33"/>
-      <c r="B35" s="36" t="s">
+      <c r="A35" s="111"/>
+      <c r="B35" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="C35" s="33"/>
-      <c r="D35" s="35" t="s">
+      <c r="C35" s="111"/>
+      <c r="D35" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="E35" s="35">
-        <v>0</v>
-      </c>
-      <c r="F35" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="G35" s="113" t="s">
+      <c r="E35" s="27">
+        <v>0</v>
+      </c>
+      <c r="F35" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="G35" s="78" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A36" s="33"/>
-      <c r="B36" s="31" t="s">
+      <c r="A36" s="111"/>
+      <c r="B36" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="C36" s="33"/>
-      <c r="D36" s="19" t="s">
+      <c r="C36" s="111"/>
+      <c r="D36" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="E36" s="19">
-        <v>0</v>
-      </c>
-      <c r="F36" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="G36" s="59" t="s">
+      <c r="E36" s="17">
+        <v>0</v>
+      </c>
+      <c r="F36" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="G36" s="49" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="57" x14ac:dyDescent="0.45">
-      <c r="A37" s="33"/>
-      <c r="B37" s="36" t="s">
+      <c r="A37" s="111"/>
+      <c r="B37" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="C37" s="33"/>
-      <c r="D37" s="35" t="s">
+      <c r="C37" s="111"/>
+      <c r="D37" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="E37" s="35">
+      <c r="E37" s="27">
         <v>13</v>
       </c>
-      <c r="F37" s="112" t="s">
+      <c r="F37" s="77" t="s">
         <v>270</v>
       </c>
-      <c r="G37" s="113" t="s">
+      <c r="G37" s="78" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A38" s="33"/>
-      <c r="B38" s="31" t="s">
+      <c r="A38" s="111"/>
+      <c r="B38" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="C38" s="33"/>
-      <c r="D38" s="19" t="s">
+      <c r="C38" s="111"/>
+      <c r="D38" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E38" s="19">
-        <v>0</v>
-      </c>
-      <c r="F38" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="G38" s="55" t="s">
+      <c r="E38" s="17">
+        <v>0</v>
+      </c>
+      <c r="F38" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="G38" s="45" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A39" s="33"/>
-      <c r="B39" s="36" t="s">
+      <c r="A39" s="111"/>
+      <c r="B39" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="C39" s="33"/>
-      <c r="D39" s="35" t="s">
+      <c r="C39" s="111"/>
+      <c r="D39" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="E39" s="35">
+      <c r="E39" s="27">
         <v>1</v>
       </c>
-      <c r="F39" s="35" t="s">
+      <c r="F39" s="27" t="s">
         <v>268</v>
       </c>
-      <c r="G39" s="60" t="s">
+      <c r="G39" s="50" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A40" s="33"/>
-      <c r="B40" s="31" t="s">
+      <c r="A40" s="111"/>
+      <c r="B40" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="C40" s="33"/>
-      <c r="D40" s="19" t="s">
+      <c r="C40" s="111"/>
+      <c r="D40" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="E40" s="19">
-        <v>0</v>
-      </c>
-      <c r="F40" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="G40" s="55" t="s">
+      <c r="E40" s="17">
+        <v>0</v>
+      </c>
+      <c r="F40" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="G40" s="45" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A41" s="48" t="s">
+      <c r="A41" s="113" t="s">
         <v>9</v>
       </c>
-      <c r="B41" s="50" t="s">
+      <c r="B41" s="41" t="s">
         <v>106</v>
       </c>
-      <c r="C41" s="48" t="s">
+      <c r="C41" s="113" t="s">
         <v>12</v>
       </c>
-      <c r="D41" s="49" t="s">
+      <c r="D41" s="40" t="s">
         <v>104</v>
       </c>
-      <c r="E41" s="51">
-        <v>0</v>
-      </c>
-      <c r="F41" s="51" t="s">
-        <v>34</v>
-      </c>
-      <c r="G41" s="54" t="s">
+      <c r="E41" s="39">
+        <v>0</v>
+      </c>
+      <c r="F41" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="G41" s="44" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A42" s="48"/>
-      <c r="B42" s="45" t="s">
+      <c r="A42" s="113"/>
+      <c r="B42" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="C42" s="48"/>
-      <c r="D42" s="20" t="s">
+      <c r="C42" s="113"/>
+      <c r="D42" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="E42" s="19">
-        <v>0</v>
-      </c>
-      <c r="F42" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="G42" s="55" t="s">
+      <c r="E42" s="17">
+        <v>0</v>
+      </c>
+      <c r="F42" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="G42" s="45" t="s">
         <v>275</v>
       </c>
-      <c r="K42" s="74"/>
+      <c r="K42" s="60"/>
     </row>
     <row r="43" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A43" s="38" t="s">
+      <c r="A43" s="112" t="s">
         <v>8</v>
       </c>
-      <c r="B43" s="41" t="s">
+      <c r="B43" s="32" t="s">
         <v>98</v>
       </c>
-      <c r="C43" s="38" t="s">
+      <c r="C43" s="112" t="s">
         <v>13</v>
       </c>
-      <c r="D43" s="39" t="s">
+      <c r="D43" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="E43" s="39">
-        <v>0</v>
-      </c>
-      <c r="F43" s="39" t="s">
-        <v>34</v>
-      </c>
-      <c r="G43" s="111" t="s">
+      <c r="E43" s="30">
+        <v>0</v>
+      </c>
+      <c r="F43" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="G43" s="76" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A44" s="38"/>
-      <c r="B44" s="31" t="s">
+      <c r="A44" s="112"/>
+      <c r="B44" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="C44" s="38"/>
-      <c r="D44" s="37" t="s">
+      <c r="C44" s="112"/>
+      <c r="D44" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E44" s="19">
+      <c r="E44" s="17">
         <v>4</v>
       </c>
-      <c r="F44" s="31" t="s">
+      <c r="F44" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="G44" s="59" t="s">
+      <c r="G44" s="49" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A45" s="38"/>
-      <c r="B45" s="41" t="s">
+      <c r="A45" s="112"/>
+      <c r="B45" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="C45" s="38"/>
-      <c r="D45" s="39" t="s">
+      <c r="C45" s="112"/>
+      <c r="D45" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="E45" s="39">
+      <c r="E45" s="30">
         <v>4</v>
       </c>
-      <c r="F45" s="39" t="s">
+      <c r="F45" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="G45" s="111" t="s">
+      <c r="G45" s="76" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A46" s="38"/>
-      <c r="B46" s="45" t="s">
+      <c r="A46" s="112"/>
+      <c r="B46" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="C46" s="38"/>
-      <c r="D46" s="20" t="s">
+      <c r="C46" s="112"/>
+      <c r="D46" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="E46" s="19">
+      <c r="E46" s="17">
         <v>1</v>
       </c>
-      <c r="F46" s="19" t="s">
+      <c r="F46" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="G46" s="55" t="s">
+      <c r="G46" s="45" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A47" s="38"/>
-      <c r="B47" s="47" t="s">
+      <c r="A47" s="112"/>
+      <c r="B47" s="38" t="s">
         <v>103</v>
       </c>
-      <c r="C47" s="38"/>
-      <c r="D47" s="40" t="s">
+      <c r="C47" s="112"/>
+      <c r="D47" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="E47" s="39">
-        <v>0</v>
-      </c>
-      <c r="F47" s="39" t="s">
-        <v>34</v>
-      </c>
-      <c r="G47" s="111" t="s">
+      <c r="E47" s="30">
+        <v>0</v>
+      </c>
+      <c r="F47" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="G47" s="76" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A48" s="38"/>
-      <c r="B48" s="45" t="s">
+      <c r="A48" s="112"/>
+      <c r="B48" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="C48" s="38"/>
-      <c r="D48" s="20" t="s">
+      <c r="C48" s="112"/>
+      <c r="D48" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="E48" s="19">
-        <v>0</v>
-      </c>
-      <c r="F48" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="G48" s="55" t="s">
+      <c r="E48" s="17">
+        <v>0</v>
+      </c>
+      <c r="F48" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="G48" s="45" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A50" s="8" t="s">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A50" s="6" t="s">
         <v>256</v>
       </c>
       <c r="D50" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="52" spans="1:12" ht="21.4" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A52" s="108" t="s">
+    <row r="52" spans="1:9" ht="21.4" thickBot="1" x14ac:dyDescent="0.7">
+      <c r="A52" s="109" t="s">
         <v>124</v>
       </c>
-      <c r="B52" s="108"/>
-      <c r="C52" s="108"/>
-      <c r="D52" s="108"/>
-      <c r="E52" s="108"/>
-      <c r="F52" s="108"/>
-      <c r="G52" s="108"/>
-      <c r="I52" s="3"/>
-    </row>
-    <row r="53" spans="1:12" ht="29.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A53" s="21" t="s">
+      <c r="B52" s="109"/>
+      <c r="C52" s="109"/>
+      <c r="D52" s="109"/>
+      <c r="E52" s="109"/>
+      <c r="F52" s="109"/>
+      <c r="G52" s="109"/>
+      <c r="I52" s="2"/>
+    </row>
+    <row r="53" spans="1:9" ht="29.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A53" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B53" s="42" t="s">
+      <c r="B53" s="33" t="s">
         <v>151</v>
       </c>
-      <c r="C53" s="21" t="s">
+      <c r="C53" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D53" s="21" t="s">
+      <c r="D53" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E53" s="66" t="s">
+      <c r="E53" s="56" t="s">
         <v>62</v>
       </c>
-      <c r="F53" s="66" t="s">
+      <c r="F53" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="G53" s="65" t="s">
+      <c r="G53" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="H53" s="64" t="s">
+      <c r="H53" s="54" t="s">
         <v>123</v>
       </c>
-      <c r="L53" s="24"/>
-    </row>
-    <row r="54" spans="1:12" ht="43.15" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="A54" s="16" t="s">
+    </row>
+    <row r="54" spans="1:9" ht="43.15" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="A54" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B54" s="17" t="s">
+      <c r="B54" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="C54" s="16" t="s">
+      <c r="C54" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D54" s="16" t="s">
+      <c r="D54" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E54" s="76">
+      <c r="E54" s="62">
         <v>141</v>
       </c>
-      <c r="F54" s="77" t="s">
+      <c r="F54" s="63" t="s">
         <v>165</v>
       </c>
-      <c r="G54" s="75" t="s">
+      <c r="G54" s="61" t="s">
         <v>120</v>
       </c>
-      <c r="H54" s="76" t="s">
+      <c r="H54" s="62" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A55" s="86" t="s">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A55" s="98" t="s">
         <v>121</v>
       </c>
-      <c r="B55" s="70" t="s">
+      <c r="B55" s="25" t="s">
         <v>126</v>
       </c>
-      <c r="C55" s="86" t="s">
+      <c r="C55" s="98" t="s">
         <v>14</v>
       </c>
-      <c r="D55" s="37" t="s">
+      <c r="D55" s="17" t="s">
         <v>136</v>
       </c>
-      <c r="E55" s="37">
-        <v>0</v>
-      </c>
-      <c r="F55" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="G55" s="81" t="s">
+      <c r="E55" s="17">
+        <v>0</v>
+      </c>
+      <c r="F55" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="G55" s="104" t="s">
         <v>146</v>
       </c>
-      <c r="H55" s="78" t="s">
+      <c r="H55" s="106" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A56" s="87"/>
-      <c r="B56" s="41" t="s">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A56" s="99"/>
+      <c r="B56" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="C56" s="87"/>
-      <c r="D56" s="39" t="s">
+      <c r="C56" s="99"/>
+      <c r="D56" s="30" t="s">
         <v>137</v>
       </c>
-      <c r="E56" s="39">
-        <v>0</v>
-      </c>
-      <c r="F56" s="39" t="s">
-        <v>34</v>
-      </c>
-      <c r="G56" s="82"/>
-      <c r="H56" s="79"/>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A57" s="87"/>
-      <c r="B57" s="70" t="s">
+      <c r="E56" s="30">
+        <v>0</v>
+      </c>
+      <c r="F56" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="G56" s="105"/>
+      <c r="H56" s="107"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A57" s="99"/>
+      <c r="B57" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="C57" s="87"/>
-      <c r="D57" s="37" t="s">
+      <c r="C57" s="99"/>
+      <c r="D57" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="E57" s="37">
-        <v>0</v>
-      </c>
-      <c r="F57" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="G57" s="82"/>
-      <c r="H57" s="79"/>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A58" s="87"/>
-      <c r="B58" s="41" t="s">
+      <c r="E57" s="17">
+        <v>0</v>
+      </c>
+      <c r="F57" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="G57" s="105"/>
+      <c r="H57" s="107"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A58" s="99"/>
+      <c r="B58" s="32" t="s">
         <v>127</v>
       </c>
-      <c r="C58" s="87"/>
-      <c r="D58" s="39" t="s">
+      <c r="C58" s="99"/>
+      <c r="D58" s="30" t="s">
         <v>139</v>
       </c>
-      <c r="E58" s="39">
-        <v>0</v>
-      </c>
-      <c r="F58" s="39" t="s">
-        <v>34</v>
-      </c>
-      <c r="G58" s="82"/>
-      <c r="H58" s="79"/>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A59" s="87"/>
-      <c r="B59" s="70" t="s">
+      <c r="E58" s="30">
+        <v>0</v>
+      </c>
+      <c r="F58" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="G58" s="105"/>
+      <c r="H58" s="107"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A59" s="99"/>
+      <c r="B59" s="25" t="s">
         <v>128</v>
       </c>
-      <c r="C59" s="87"/>
-      <c r="D59" s="37" t="s">
+      <c r="C59" s="99"/>
+      <c r="D59" s="17" t="s">
         <v>140</v>
       </c>
-      <c r="E59" s="37">
-        <v>0</v>
-      </c>
-      <c r="F59" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="G59" s="82"/>
-      <c r="H59" s="79"/>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A60" s="87"/>
-      <c r="B60" s="41" t="s">
+      <c r="E59" s="17">
+        <v>0</v>
+      </c>
+      <c r="F59" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="G59" s="105"/>
+      <c r="H59" s="107"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A60" s="99"/>
+      <c r="B60" s="32" t="s">
         <v>129</v>
       </c>
-      <c r="C60" s="87"/>
-      <c r="D60" s="39" t="s">
+      <c r="C60" s="99"/>
+      <c r="D60" s="30" t="s">
         <v>141</v>
       </c>
-      <c r="E60" s="39">
-        <v>0</v>
-      </c>
-      <c r="F60" s="39" t="s">
-        <v>34</v>
-      </c>
-      <c r="G60" s="82"/>
-      <c r="H60" s="79"/>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A61" s="87"/>
-      <c r="B61" s="70" t="s">
+      <c r="E60" s="30">
+        <v>0</v>
+      </c>
+      <c r="F60" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="G60" s="105"/>
+      <c r="H60" s="107"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A61" s="99"/>
+      <c r="B61" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="C61" s="87"/>
-      <c r="D61" s="37" t="s">
+      <c r="C61" s="99"/>
+      <c r="D61" s="17" t="s">
         <v>142</v>
       </c>
-      <c r="E61" s="37">
-        <v>0</v>
-      </c>
-      <c r="F61" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="G61" s="83" t="s">
+      <c r="E61" s="17">
+        <v>0</v>
+      </c>
+      <c r="F61" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="G61" s="64" t="s">
         <v>150</v>
       </c>
-      <c r="H61" s="79"/>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A62" s="87"/>
-      <c r="B62" s="41" t="s">
+      <c r="H61" s="107"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A62" s="99"/>
+      <c r="B62" s="32" t="s">
         <v>134</v>
       </c>
-      <c r="C62" s="87"/>
-      <c r="D62" s="39" t="s">
+      <c r="C62" s="99"/>
+      <c r="D62" s="30" t="s">
         <v>143</v>
       </c>
-      <c r="E62" s="39">
-        <v>0</v>
-      </c>
-      <c r="F62" s="39" t="s">
-        <v>34</v>
-      </c>
-      <c r="G62" s="83" t="s">
+      <c r="E62" s="30">
+        <v>0</v>
+      </c>
+      <c r="F62" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="G62" s="64" t="s">
         <v>147</v>
       </c>
-      <c r="H62" s="79"/>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A63" s="87"/>
-      <c r="B63" s="71" t="s">
+      <c r="H62" s="107"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A63" s="99"/>
+      <c r="B63" s="36" t="s">
         <v>135</v>
       </c>
-      <c r="C63" s="87"/>
-      <c r="D63" s="37" t="s">
+      <c r="C63" s="99"/>
+      <c r="D63" s="17" t="s">
         <v>144</v>
       </c>
-      <c r="E63" s="37">
-        <v>0</v>
-      </c>
-      <c r="F63" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="G63" s="83" t="s">
+      <c r="E63" s="17">
+        <v>0</v>
+      </c>
+      <c r="F63" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="G63" s="64" t="s">
         <v>148</v>
       </c>
-      <c r="H63" s="79"/>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A64" s="87"/>
-      <c r="B64" s="47" t="s">
+      <c r="H63" s="107"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A64" s="99"/>
+      <c r="B64" s="38" t="s">
         <v>131</v>
       </c>
-      <c r="C64" s="87"/>
-      <c r="D64" s="39" t="s">
+      <c r="C64" s="99"/>
+      <c r="D64" s="30" t="s">
         <v>145</v>
       </c>
-      <c r="E64" s="39">
-        <v>0</v>
-      </c>
-      <c r="F64" s="39" t="s">
-        <v>34</v>
-      </c>
-      <c r="G64" s="84" t="s">
+      <c r="E64" s="30">
+        <v>0</v>
+      </c>
+      <c r="F64" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="G64" s="65" t="s">
         <v>149</v>
       </c>
-      <c r="H64" s="79"/>
+      <c r="H64" s="107"/>
     </row>
     <row r="65" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A65" s="87"/>
-      <c r="B65" s="71" t="s">
+      <c r="A65" s="99"/>
+      <c r="B65" s="36" t="s">
         <v>98</v>
       </c>
-      <c r="C65" s="87"/>
-      <c r="D65" s="37" t="s">
+      <c r="C65" s="99"/>
+      <c r="D65" s="17" t="s">
         <v>156</v>
       </c>
-      <c r="E65" s="37">
+      <c r="E65" s="17">
         <v>4</v>
       </c>
-      <c r="F65" s="70" t="s">
+      <c r="F65" s="25" t="s">
         <v>192</v>
       </c>
-      <c r="G65" s="69" t="s">
+      <c r="G65" s="45" t="s">
         <v>157</v>
       </c>
-      <c r="H65" s="79"/>
+      <c r="H65" s="107"/>
     </row>
     <row r="66" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A66" s="87"/>
-      <c r="B66" s="47" t="s">
+      <c r="A66" s="99"/>
+      <c r="B66" s="38" t="s">
         <v>99</v>
       </c>
-      <c r="C66" s="87"/>
-      <c r="D66" s="39" t="s">
+      <c r="C66" s="99"/>
+      <c r="D66" s="30" t="s">
         <v>155</v>
       </c>
-      <c r="E66" s="39">
-        <v>0</v>
-      </c>
-      <c r="F66" s="41" t="s">
-        <v>34</v>
-      </c>
-      <c r="G66" s="111" t="s">
+      <c r="E66" s="30">
+        <v>0</v>
+      </c>
+      <c r="F66" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="G66" s="76" t="s">
         <v>158</v>
       </c>
-      <c r="H66" s="79"/>
+      <c r="H66" s="107"/>
     </row>
     <row r="67" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A67" s="87"/>
-      <c r="B67" s="70" t="s">
+      <c r="A67" s="99"/>
+      <c r="B67" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="C67" s="87"/>
-      <c r="D67" s="37" t="s">
+      <c r="C67" s="99"/>
+      <c r="D67" s="17" t="s">
         <v>154</v>
       </c>
-      <c r="E67" s="37">
+      <c r="E67" s="17">
         <v>4</v>
       </c>
-      <c r="F67" s="70" t="s">
+      <c r="F67" s="25" t="s">
         <v>179</v>
       </c>
-      <c r="G67" s="89" t="s">
+      <c r="G67" s="66" t="s">
         <v>250</v>
       </c>
-      <c r="H67" s="79"/>
+      <c r="H67" s="107"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A68" s="87"/>
-      <c r="B68" s="47" t="s">
+      <c r="A68" s="99"/>
+      <c r="B68" s="38" t="s">
         <v>103</v>
       </c>
-      <c r="C68" s="87"/>
-      <c r="D68" s="39" t="s">
+      <c r="C68" s="99"/>
+      <c r="D68" s="30" t="s">
         <v>153</v>
       </c>
-      <c r="E68" s="39">
+      <c r="E68" s="30">
         <v>4</v>
       </c>
-      <c r="F68" s="41" t="s">
+      <c r="F68" s="32" t="s">
         <v>180</v>
       </c>
-      <c r="G68" s="61" t="s">
+      <c r="G68" s="51" t="s">
         <v>248</v>
       </c>
-      <c r="H68" s="79"/>
+      <c r="H68" s="107"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A69" s="87"/>
-      <c r="B69" s="71" t="s">
+      <c r="A69" s="99"/>
+      <c r="B69" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="C69" s="87"/>
-      <c r="D69" s="37" t="s">
+      <c r="C69" s="99"/>
+      <c r="D69" s="17" t="s">
         <v>152</v>
       </c>
-      <c r="E69" s="37">
+      <c r="E69" s="17">
         <v>4</v>
       </c>
-      <c r="F69" s="70" t="s">
+      <c r="F69" s="25" t="s">
         <v>181</v>
       </c>
-      <c r="G69" s="69" t="s">
+      <c r="G69" s="45" t="s">
         <v>249</v>
       </c>
-      <c r="H69" s="80"/>
+      <c r="H69" s="108"/>
     </row>
     <row r="70" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A70" s="87"/>
-      <c r="B70" s="95" t="s">
+      <c r="A70" s="99"/>
+      <c r="B70" s="67" t="s">
         <v>159</v>
       </c>
-      <c r="C70" s="87"/>
-      <c r="D70" s="51" t="s">
+      <c r="C70" s="99"/>
+      <c r="D70" s="39" t="s">
         <v>161</v>
       </c>
-      <c r="E70" s="51">
-        <v>0</v>
-      </c>
-      <c r="F70" s="51" t="s">
-        <v>34</v>
-      </c>
-      <c r="G70" s="96" t="s">
+      <c r="E70" s="39">
+        <v>0</v>
+      </c>
+      <c r="F70" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="G70" s="68" t="s">
         <v>163</v>
       </c>
-      <c r="H70" s="90" t="s">
+      <c r="H70" s="96" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A71" s="87"/>
-      <c r="B71" s="70" t="s">
+      <c r="A71" s="99"/>
+      <c r="B71" s="25" t="s">
         <v>160</v>
       </c>
-      <c r="C71" s="87"/>
-      <c r="D71" s="37" t="s">
+      <c r="C71" s="99"/>
+      <c r="D71" s="17" t="s">
         <v>162</v>
       </c>
-      <c r="E71" s="37">
-        <v>0</v>
-      </c>
-      <c r="F71" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="G71" s="72" t="s">
+      <c r="E71" s="17">
+        <v>0</v>
+      </c>
+      <c r="F71" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="G71" s="49" t="s">
         <v>164</v>
       </c>
-      <c r="H71" s="91"/>
+      <c r="H71" s="97"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A72" s="87"/>
-      <c r="B72" s="97" t="s">
+      <c r="A72" s="99"/>
+      <c r="B72" s="69" t="s">
         <v>85</v>
       </c>
-      <c r="C72" s="87"/>
-      <c r="D72" s="35" t="s">
+      <c r="C72" s="99"/>
+      <c r="D72" s="27" t="s">
         <v>171</v>
       </c>
-      <c r="E72" s="35">
-        <v>0</v>
-      </c>
-      <c r="F72" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="G72" s="34" t="s">
+      <c r="E72" s="27">
+        <v>0</v>
+      </c>
+      <c r="F72" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="G72" s="28" t="s">
         <v>187</v>
       </c>
-      <c r="H72" s="92" t="s">
+      <c r="H72" s="101" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A73" s="87"/>
-      <c r="B73" s="71" t="s">
+      <c r="A73" s="99"/>
+      <c r="B73" s="36" t="s">
         <v>166</v>
       </c>
-      <c r="C73" s="87"/>
-      <c r="D73" s="37" t="s">
+      <c r="C73" s="99"/>
+      <c r="D73" s="17" t="s">
         <v>172</v>
       </c>
-      <c r="E73" s="37">
+      <c r="E73" s="17">
         <v>4</v>
       </c>
-      <c r="F73" s="37" t="s">
+      <c r="F73" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="G73" s="69" t="s">
+      <c r="G73" s="45" t="s">
         <v>189</v>
       </c>
-      <c r="H73" s="93"/>
+      <c r="H73" s="102"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A74" s="87"/>
-      <c r="B74" s="97" t="s">
+      <c r="A74" s="99"/>
+      <c r="B74" s="69" t="s">
         <v>88</v>
       </c>
-      <c r="C74" s="87"/>
-      <c r="D74" s="35" t="s">
+      <c r="C74" s="99"/>
+      <c r="D74" s="27" t="s">
         <v>175</v>
       </c>
-      <c r="E74" s="35">
-        <v>0</v>
-      </c>
-      <c r="F74" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="G74" s="60" t="s">
+      <c r="E74" s="27">
+        <v>0</v>
+      </c>
+      <c r="F74" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="G74" s="50" t="s">
         <v>190</v>
       </c>
-      <c r="H74" s="93"/>
+      <c r="H74" s="102"/>
     </row>
     <row r="75" spans="1:8" ht="57" x14ac:dyDescent="0.45">
-      <c r="A75" s="87"/>
-      <c r="B75" s="70" t="s">
+      <c r="A75" s="99"/>
+      <c r="B75" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="C75" s="87"/>
-      <c r="D75" s="37" t="s">
+      <c r="C75" s="99"/>
+      <c r="D75" s="17" t="s">
         <v>174</v>
       </c>
-      <c r="E75" s="37">
+      <c r="E75" s="17">
         <v>28</v>
       </c>
-      <c r="F75" s="70" t="s">
+      <c r="F75" s="25" t="s">
         <v>191</v>
       </c>
-      <c r="G75" s="72" t="s">
+      <c r="G75" s="49" t="s">
         <v>251</v>
       </c>
-      <c r="H75" s="93"/>
+      <c r="H75" s="102"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A76" s="87"/>
-      <c r="B76" s="97" t="s">
+      <c r="A76" s="99"/>
+      <c r="B76" s="69" t="s">
         <v>167</v>
       </c>
-      <c r="C76" s="87"/>
-      <c r="D76" s="35" t="s">
+      <c r="C76" s="99"/>
+      <c r="D76" s="27" t="s">
         <v>173</v>
       </c>
-      <c r="E76" s="35">
+      <c r="E76" s="27">
         <v>4</v>
       </c>
-      <c r="F76" s="35" t="s">
+      <c r="F76" s="27" t="s">
         <v>185</v>
       </c>
-      <c r="G76" s="60" t="s">
+      <c r="G76" s="50" t="s">
         <v>186</v>
       </c>
-      <c r="H76" s="93"/>
+      <c r="H76" s="102"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A77" s="87"/>
-      <c r="B77" s="71" t="s">
+      <c r="A77" s="99"/>
+      <c r="B77" s="36" t="s">
         <v>168</v>
       </c>
-      <c r="C77" s="87"/>
-      <c r="D77" s="37" t="s">
+      <c r="C77" s="99"/>
+      <c r="D77" s="17" t="s">
         <v>176</v>
       </c>
-      <c r="E77" s="37">
-        <v>0</v>
-      </c>
-      <c r="F77" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="G77" s="69" t="s">
+      <c r="E77" s="17">
+        <v>0</v>
+      </c>
+      <c r="F77" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="G77" s="45" t="s">
         <v>183</v>
       </c>
-      <c r="H77" s="93"/>
+      <c r="H77" s="102"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A78" s="87"/>
-      <c r="B78" s="97" t="s">
+      <c r="A78" s="99"/>
+      <c r="B78" s="69" t="s">
         <v>169</v>
       </c>
-      <c r="C78" s="87"/>
-      <c r="D78" s="35" t="s">
+      <c r="C78" s="99"/>
+      <c r="D78" s="27" t="s">
         <v>177</v>
       </c>
-      <c r="E78" s="35">
-        <v>0</v>
-      </c>
-      <c r="F78" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="G78" s="60" t="s">
+      <c r="E78" s="27">
+        <v>0</v>
+      </c>
+      <c r="F78" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="G78" s="50" t="s">
         <v>184</v>
       </c>
-      <c r="H78" s="93"/>
+      <c r="H78" s="102"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A79" s="87"/>
-      <c r="B79" s="71" t="s">
+      <c r="A79" s="99"/>
+      <c r="B79" s="36" t="s">
         <v>170</v>
       </c>
-      <c r="C79" s="87"/>
-      <c r="D79" s="37" t="s">
+      <c r="C79" s="99"/>
+      <c r="D79" s="17" t="s">
         <v>178</v>
       </c>
-      <c r="E79" s="37">
-        <v>0</v>
-      </c>
-      <c r="F79" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="G79" s="69" t="s">
+      <c r="E79" s="17">
+        <v>0</v>
+      </c>
+      <c r="F79" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="G79" s="45" t="s">
         <v>182</v>
       </c>
-      <c r="H79" s="94"/>
+      <c r="H79" s="103"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A80" s="87" t="s">
+      <c r="A80" s="99" t="s">
         <v>121</v>
       </c>
-      <c r="B80" s="46" t="s">
+      <c r="B80" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="C80" s="87" t="s">
+      <c r="C80" s="99" t="s">
         <v>14</v>
       </c>
-      <c r="D80" s="30" t="s">
+      <c r="D80" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="E80" s="30">
-        <v>0</v>
-      </c>
-      <c r="F80" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="G80" s="58" t="s">
+      <c r="E80" s="24">
+        <v>0</v>
+      </c>
+      <c r="F80" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="G80" s="48" t="s">
         <v>254</v>
       </c>
-      <c r="H80" s="98" t="s">
+      <c r="H80" s="89" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A81" s="87"/>
-      <c r="B81" s="71" t="s">
+      <c r="A81" s="99"/>
+      <c r="B81" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="C81" s="87"/>
-      <c r="D81" s="37" t="s">
+      <c r="C81" s="99"/>
+      <c r="D81" s="17" t="s">
         <v>193</v>
       </c>
-      <c r="E81" s="37">
-        <v>0</v>
-      </c>
-      <c r="F81" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="G81" s="69" t="s">
+      <c r="E81" s="17">
+        <v>0</v>
+      </c>
+      <c r="F81" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="G81" s="45" t="s">
         <v>316</v>
       </c>
-      <c r="H81" s="99"/>
+      <c r="H81" s="90"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A82" s="87"/>
-      <c r="B82" s="46" t="s">
+      <c r="A82" s="99"/>
+      <c r="B82" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="C82" s="87"/>
-      <c r="D82" s="30" t="s">
+      <c r="C82" s="99"/>
+      <c r="D82" s="24" t="s">
         <v>195</v>
       </c>
-      <c r="E82" s="30">
+      <c r="E82" s="24">
         <v>4</v>
       </c>
-      <c r="F82" s="30" t="s">
+      <c r="F82" s="24" t="s">
         <v>252</v>
       </c>
-      <c r="G82" s="58" t="s">
+      <c r="G82" s="48" t="s">
         <v>253</v>
       </c>
-      <c r="H82" s="99"/>
+      <c r="H82" s="90"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A83" s="87"/>
-      <c r="B83" s="71" t="s">
+      <c r="A83" s="99"/>
+      <c r="B83" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="C83" s="87"/>
-      <c r="D83" s="37" t="s">
+      <c r="C83" s="99"/>
+      <c r="D83" s="17" t="s">
         <v>194</v>
       </c>
-      <c r="E83" s="37">
-        <v>0</v>
-      </c>
-      <c r="F83" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="G83" s="69" t="s">
+      <c r="E83" s="17">
+        <v>0</v>
+      </c>
+      <c r="F83" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="G83" s="45" t="s">
         <v>316</v>
       </c>
-      <c r="H83" s="99"/>
+      <c r="H83" s="90"/>
     </row>
     <row r="84" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A84" s="87"/>
-      <c r="B84" s="32" t="s">
+      <c r="A84" s="99"/>
+      <c r="B84" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="C84" s="87"/>
-      <c r="D84" s="30" t="s">
+      <c r="C84" s="99"/>
+      <c r="D84" s="24" t="s">
         <v>197</v>
       </c>
-      <c r="E84" s="30">
+      <c r="E84" s="24">
         <v>16</v>
       </c>
-      <c r="F84" s="32" t="s">
+      <c r="F84" s="26" t="s">
         <v>307</v>
       </c>
-      <c r="G84" s="109" t="s">
+      <c r="G84" s="74" t="s">
         <v>311</v>
       </c>
-      <c r="H84" s="99"/>
+      <c r="H84" s="90"/>
     </row>
     <row r="85" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A85" s="87"/>
-      <c r="B85" s="70" t="s">
+      <c r="A85" s="99"/>
+      <c r="B85" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="C85" s="87"/>
-      <c r="D85" s="37" t="s">
+      <c r="C85" s="99"/>
+      <c r="D85" s="17" t="s">
         <v>198</v>
       </c>
-      <c r="E85" s="70">
+      <c r="E85" s="25">
         <v>8</v>
       </c>
-      <c r="F85" s="70" t="s">
+      <c r="F85" s="25" t="s">
         <v>261</v>
       </c>
-      <c r="G85" s="72" t="s">
+      <c r="G85" s="49" t="s">
         <v>306</v>
       </c>
-      <c r="H85" s="99"/>
+      <c r="H85" s="90"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A86" s="87"/>
-      <c r="B86" s="46" t="s">
+      <c r="A86" s="99"/>
+      <c r="B86" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="C86" s="87"/>
-      <c r="D86" s="30" t="s">
+      <c r="C86" s="99"/>
+      <c r="D86" s="24" t="s">
         <v>199</v>
       </c>
-      <c r="E86" s="30"/>
-      <c r="F86" s="30"/>
-      <c r="G86" s="58"/>
-      <c r="H86" s="99"/>
+      <c r="E86" s="24">
+        <v>0</v>
+      </c>
+      <c r="F86" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="G86" s="48" t="s">
+        <v>370</v>
+      </c>
+      <c r="H86" s="90"/>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A87" s="87"/>
-      <c r="B87" s="71" t="s">
+      <c r="A87" s="99"/>
+      <c r="B87" s="36" t="s">
         <v>76</v>
       </c>
-      <c r="C87" s="87"/>
-      <c r="D87" s="37" t="s">
+      <c r="C87" s="99"/>
+      <c r="D87" s="17" t="s">
         <v>196</v>
       </c>
-      <c r="E87" s="37">
+      <c r="E87" s="17">
         <v>1</v>
       </c>
-      <c r="F87" s="37" t="s">
+      <c r="F87" s="17" t="s">
         <v>294</v>
       </c>
-      <c r="G87" s="69" t="s">
+      <c r="G87" s="45" t="s">
         <v>295</v>
       </c>
-      <c r="H87" s="99"/>
+      <c r="H87" s="90"/>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A88" s="87"/>
-      <c r="B88" s="43" t="s">
+      <c r="A88" s="99"/>
+      <c r="B88" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="C88" s="87"/>
-      <c r="D88" s="9" t="s">
+      <c r="C88" s="99"/>
+      <c r="D88" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="E88" s="9">
+      <c r="E88" s="7">
         <v>4</v>
       </c>
-      <c r="F88" s="9" t="s">
+      <c r="F88" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="G88" s="100" t="s">
+      <c r="G88" s="70" t="s">
         <v>293</v>
       </c>
-      <c r="H88" s="29" t="s">
+      <c r="H88" s="91" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A89" s="87"/>
-      <c r="B89" s="6" t="s">
+      <c r="A89" s="99"/>
+      <c r="B89" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C89" s="87"/>
-      <c r="D89" s="37" t="s">
+      <c r="C89" s="99"/>
+      <c r="D89" s="17" t="s">
         <v>203</v>
       </c>
-      <c r="E89" s="37">
-        <v>0</v>
-      </c>
-      <c r="F89" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="G89" s="69" t="s">
+      <c r="E89" s="17">
+        <v>0</v>
+      </c>
+      <c r="F89" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="G89" s="45" t="s">
         <v>292</v>
       </c>
-      <c r="H89" s="29"/>
+      <c r="H89" s="91"/>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A90" s="87"/>
-      <c r="B90" s="44" t="s">
+      <c r="A90" s="99"/>
+      <c r="B90" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="C90" s="87"/>
-      <c r="D90" s="9" t="s">
+      <c r="C90" s="99"/>
+      <c r="D90" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E90" s="9">
+      <c r="E90" s="7">
         <v>4</v>
       </c>
-      <c r="F90" s="9" t="s">
+      <c r="F90" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="G90" s="100" t="s">
+      <c r="G90" s="70" t="s">
         <v>314</v>
       </c>
-      <c r="H90" s="29"/>
+      <c r="H90" s="91"/>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A91" s="87"/>
-      <c r="B91" s="6" t="s">
+      <c r="A91" s="99"/>
+      <c r="B91" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C91" s="87"/>
-      <c r="D91" s="37" t="s">
+      <c r="C91" s="99"/>
+      <c r="D91" s="17" t="s">
         <v>204</v>
       </c>
-      <c r="E91" s="37">
+      <c r="E91" s="17">
         <v>4</v>
       </c>
-      <c r="F91" s="37" t="s">
+      <c r="F91" s="17" t="s">
         <v>304</v>
       </c>
-      <c r="G91" s="69" t="s">
+      <c r="G91" s="45" t="s">
         <v>305</v>
       </c>
-      <c r="H91" s="29"/>
+      <c r="H91" s="91"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A92" s="87"/>
-      <c r="B92" s="44" t="s">
+      <c r="A92" s="99"/>
+      <c r="B92" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="C92" s="87"/>
-      <c r="D92" s="9" t="s">
+      <c r="C92" s="99"/>
+      <c r="D92" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="E92" s="9">
+      <c r="E92" s="7">
         <v>4</v>
       </c>
-      <c r="F92" s="9" t="s">
+      <c r="F92" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="G92" s="100" t="s">
+      <c r="G92" s="70" t="s">
         <v>301</v>
       </c>
-      <c r="H92" s="29"/>
+      <c r="H92" s="91"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A93" s="87"/>
-      <c r="B93" s="6" t="s">
+      <c r="A93" s="99"/>
+      <c r="B93" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C93" s="87"/>
-      <c r="D93" s="37" t="s">
+      <c r="C93" s="99"/>
+      <c r="D93" s="17" t="s">
         <v>206</v>
       </c>
-      <c r="E93" s="37">
+      <c r="E93" s="17">
         <v>4</v>
       </c>
-      <c r="F93" s="37" t="s">
+      <c r="F93" s="17" t="s">
         <v>298</v>
       </c>
-      <c r="G93" s="69" t="s">
+      <c r="G93" s="45" t="s">
         <v>300</v>
       </c>
-      <c r="H93" s="29"/>
+      <c r="H93" s="91"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A94" s="87"/>
-      <c r="B94" s="44" t="s">
+      <c r="A94" s="99"/>
+      <c r="B94" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="C94" s="87"/>
-      <c r="D94" s="9" t="s">
+      <c r="C94" s="99"/>
+      <c r="D94" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="E94" s="9">
+      <c r="E94" s="7">
         <v>4</v>
       </c>
-      <c r="F94" s="9" t="s">
+      <c r="F94" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="G94" s="100" t="s">
+      <c r="G94" s="70" t="s">
         <v>293</v>
       </c>
-      <c r="H94" s="29"/>
+      <c r="H94" s="91"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A95" s="87"/>
-      <c r="B95" s="6" t="s">
+      <c r="A95" s="99"/>
+      <c r="B95" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C95" s="87"/>
-      <c r="D95" s="37" t="s">
+      <c r="C95" s="99"/>
+      <c r="D95" s="17" t="s">
         <v>213</v>
       </c>
-      <c r="E95" s="37">
-        <v>0</v>
-      </c>
-      <c r="F95" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="G95" s="69" t="s">
+      <c r="E95" s="17">
+        <v>0</v>
+      </c>
+      <c r="F95" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="G95" s="45" t="s">
         <v>292</v>
       </c>
-      <c r="H95" s="29"/>
+      <c r="H95" s="91"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A96" s="87"/>
-      <c r="B96" s="44" t="s">
+      <c r="A96" s="99"/>
+      <c r="B96" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="C96" s="87"/>
-      <c r="D96" s="9" t="s">
+      <c r="C96" s="99"/>
+      <c r="D96" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="E96" s="9">
+      <c r="E96" s="7">
         <v>4</v>
       </c>
-      <c r="F96" s="9" t="s">
+      <c r="F96" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="G96" s="100" t="s">
+      <c r="G96" s="70" t="s">
         <v>293</v>
       </c>
-      <c r="H96" s="29"/>
+      <c r="H96" s="91"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A97" s="87"/>
-      <c r="B97" s="6" t="s">
+      <c r="A97" s="99"/>
+      <c r="B97" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C97" s="87"/>
-      <c r="D97" s="37" t="s">
+      <c r="C97" s="99"/>
+      <c r="D97" s="17" t="s">
         <v>212</v>
       </c>
-      <c r="E97" s="37">
-        <v>0</v>
-      </c>
-      <c r="F97" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="G97" s="69" t="s">
+      <c r="E97" s="17">
+        <v>0</v>
+      </c>
+      <c r="F97" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="G97" s="45" t="s">
         <v>292</v>
       </c>
-      <c r="H97" s="29"/>
+      <c r="H97" s="91"/>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A98" s="87"/>
-      <c r="B98" s="44" t="s">
+      <c r="A98" s="99"/>
+      <c r="B98" s="35" t="s">
         <v>201</v>
       </c>
-      <c r="C98" s="87"/>
-      <c r="D98" s="9" t="s">
+      <c r="C98" s="99"/>
+      <c r="D98" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="E98" s="9">
+      <c r="E98" s="7">
         <v>2</v>
       </c>
-      <c r="F98" s="9" t="s">
+      <c r="F98" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="G98" s="100" t="s">
+      <c r="G98" s="70" t="s">
         <v>312</v>
       </c>
-      <c r="H98" s="29"/>
+      <c r="H98" s="91"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A99" s="87"/>
-      <c r="B99" s="6" t="s">
+      <c r="A99" s="99"/>
+      <c r="B99" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C99" s="87"/>
-      <c r="D99" s="37" t="s">
+      <c r="C99" s="99"/>
+      <c r="D99" s="17" t="s">
         <v>207</v>
       </c>
-      <c r="E99" s="37">
+      <c r="E99" s="17">
         <v>4</v>
       </c>
-      <c r="F99" s="37" t="s">
+      <c r="F99" s="17" t="s">
         <v>296</v>
       </c>
-      <c r="G99" s="69" t="s">
+      <c r="G99" s="45" t="s">
         <v>299</v>
       </c>
-      <c r="H99" s="29"/>
+      <c r="H99" s="91"/>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A100" s="87"/>
-      <c r="B100" s="44" t="s">
+      <c r="A100" s="99"/>
+      <c r="B100" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="C100" s="87"/>
-      <c r="D100" s="9" t="s">
+      <c r="C100" s="99"/>
+      <c r="D100" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="E100" s="9">
+      <c r="E100" s="7">
         <v>4</v>
       </c>
-      <c r="F100" s="9" t="s">
+      <c r="F100" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="G100" s="100" t="s">
+      <c r="G100" s="70" t="s">
         <v>284</v>
       </c>
-      <c r="H100" s="29"/>
+      <c r="H100" s="91"/>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A101" s="87"/>
-      <c r="B101" s="6" t="s">
+      <c r="A101" s="99"/>
+      <c r="B101" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="C101" s="87"/>
-      <c r="D101" s="37" t="s">
+      <c r="C101" s="99"/>
+      <c r="D101" s="17" t="s">
         <v>209</v>
       </c>
-      <c r="E101" s="37">
+      <c r="E101" s="17">
         <v>2</v>
       </c>
-      <c r="F101" s="37" t="s">
+      <c r="F101" s="17" t="s">
         <v>302</v>
       </c>
-      <c r="G101" s="69" t="s">
+      <c r="G101" s="45" t="s">
         <v>303</v>
       </c>
-      <c r="H101" s="29"/>
+      <c r="H101" s="91"/>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A102" s="87"/>
-      <c r="B102" s="101" t="s">
+      <c r="A102" s="99"/>
+      <c r="B102" s="71" t="s">
         <v>214</v>
       </c>
-      <c r="C102" s="87"/>
-      <c r="D102" s="85" t="s">
+      <c r="C102" s="99"/>
+      <c r="D102" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="E102" s="85">
-        <v>0</v>
-      </c>
-      <c r="F102" s="85" t="s">
-        <v>34</v>
-      </c>
-      <c r="G102" s="102" t="s">
+      <c r="E102" s="58">
+        <v>0</v>
+      </c>
+      <c r="F102" s="58" t="s">
+        <v>34</v>
+      </c>
+      <c r="G102" s="72" t="s">
         <v>288</v>
       </c>
-      <c r="H102" s="68" t="s">
+      <c r="H102" s="92" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A103" s="87"/>
-      <c r="B103" s="71" t="s">
+      <c r="A103" s="99"/>
+      <c r="B103" s="36" t="s">
         <v>225</v>
       </c>
-      <c r="C103" s="87"/>
-      <c r="D103" s="37" t="s">
+      <c r="C103" s="99"/>
+      <c r="D103" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E103" s="37">
-        <v>0</v>
-      </c>
-      <c r="F103" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="G103" s="69" t="s">
+      <c r="E103" s="17">
+        <v>0</v>
+      </c>
+      <c r="F103" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="G103" s="45" t="s">
         <v>289</v>
       </c>
-      <c r="H103" s="68"/>
+      <c r="H103" s="92"/>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A104" s="87"/>
-      <c r="B104" s="101" t="s">
+      <c r="A104" s="99"/>
+      <c r="B104" s="71" t="s">
         <v>224</v>
       </c>
-      <c r="C104" s="87"/>
-      <c r="D104" s="85" t="s">
+      <c r="C104" s="99"/>
+      <c r="D104" s="58" t="s">
         <v>215</v>
       </c>
-      <c r="E104" s="85">
+      <c r="E104" s="58">
         <v>4</v>
       </c>
-      <c r="F104" s="85" t="s">
+      <c r="F104" s="58" t="s">
         <v>181</v>
       </c>
-      <c r="G104" s="102" t="s">
+      <c r="G104" s="72" t="s">
         <v>287</v>
       </c>
-      <c r="H104" s="68"/>
+      <c r="H104" s="92"/>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A105" s="87"/>
-      <c r="B105" s="71" t="s">
+      <c r="A105" s="99"/>
+      <c r="B105" s="36" t="s">
         <v>223</v>
       </c>
-      <c r="C105" s="87"/>
-      <c r="D105" s="37" t="s">
+      <c r="C105" s="99"/>
+      <c r="D105" s="17" t="s">
         <v>216</v>
       </c>
-      <c r="E105" s="37">
-        <v>0</v>
-      </c>
-      <c r="F105" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="G105" s="69" t="s">
+      <c r="E105" s="17">
+        <v>0</v>
+      </c>
+      <c r="F105" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="G105" s="45" t="s">
         <v>290</v>
       </c>
-      <c r="H105" s="68"/>
+      <c r="H105" s="92"/>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A106" s="87"/>
-      <c r="B106" s="101" t="s">
+      <c r="A106" s="99"/>
+      <c r="B106" s="71" t="s">
         <v>222</v>
       </c>
-      <c r="C106" s="87"/>
-      <c r="D106" s="85" t="s">
+      <c r="C106" s="99"/>
+      <c r="D106" s="58" t="s">
         <v>217</v>
       </c>
-      <c r="E106" s="85">
-        <v>0</v>
-      </c>
-      <c r="F106" s="85" t="s">
-        <v>34</v>
-      </c>
-      <c r="G106" s="102" t="s">
+      <c r="E106" s="58">
+        <v>0</v>
+      </c>
+      <c r="F106" s="58" t="s">
+        <v>34</v>
+      </c>
+      <c r="G106" s="72" t="s">
         <v>291</v>
       </c>
-      <c r="H106" s="68"/>
+      <c r="H106" s="92"/>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A107" s="87"/>
-      <c r="B107" s="71" t="s">
+      <c r="A107" s="99"/>
+      <c r="B107" s="36" t="s">
         <v>220</v>
       </c>
-      <c r="C107" s="87"/>
-      <c r="D107" s="37" t="s">
+      <c r="C107" s="99"/>
+      <c r="D107" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="E107" s="37">
-        <v>0</v>
-      </c>
-      <c r="F107" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="G107" s="69" t="s">
+      <c r="E107" s="17">
+        <v>0</v>
+      </c>
+      <c r="F107" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="G107" s="45" t="s">
         <v>285</v>
       </c>
-      <c r="H107" s="68"/>
+      <c r="H107" s="92"/>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A108" s="87"/>
-      <c r="B108" s="101" t="s">
+      <c r="A108" s="99"/>
+      <c r="B108" s="71" t="s">
         <v>221</v>
       </c>
-      <c r="C108" s="87"/>
-      <c r="D108" s="85" t="s">
+      <c r="C108" s="99"/>
+      <c r="D108" s="58" t="s">
         <v>80</v>
       </c>
-      <c r="E108" s="85">
-        <v>0</v>
-      </c>
-      <c r="F108" s="85" t="s">
-        <v>34</v>
-      </c>
-      <c r="G108" s="102" t="s">
+      <c r="E108" s="58">
+        <v>0</v>
+      </c>
+      <c r="F108" s="58" t="s">
+        <v>34</v>
+      </c>
+      <c r="G108" s="72" t="s">
         <v>286</v>
       </c>
-      <c r="H108" s="68"/>
+      <c r="H108" s="92"/>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A109" s="88"/>
-      <c r="B109" s="71" t="s">
+      <c r="A109" s="100"/>
+      <c r="B109" s="36" t="s">
         <v>219</v>
       </c>
-      <c r="C109" s="88"/>
-      <c r="D109" s="37" t="s">
+      <c r="C109" s="100"/>
+      <c r="D109" s="17" t="s">
         <v>218</v>
       </c>
-      <c r="E109" s="37">
+      <c r="E109" s="17">
         <v>1</v>
       </c>
-      <c r="F109" s="37" t="s">
+      <c r="F109" s="17" t="s">
         <v>242</v>
       </c>
-      <c r="G109" s="69" t="s">
+      <c r="G109" s="45" t="s">
         <v>282</v>
       </c>
-      <c r="H109" s="68"/>
+      <c r="H109" s="92"/>
     </row>
     <row r="110" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A110" s="67" t="s">
+      <c r="A110" s="110" t="s">
         <v>122</v>
       </c>
-      <c r="B110" s="103" t="s">
+      <c r="B110" s="73" t="s">
         <v>226</v>
       </c>
-      <c r="C110" s="67" t="s">
+      <c r="C110" s="110" t="s">
         <v>18</v>
       </c>
-      <c r="D110" s="104" t="s">
+      <c r="D110" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="E110" s="104">
+      <c r="E110" s="57">
         <v>120</v>
       </c>
-      <c r="F110" s="104" t="s">
+      <c r="F110" s="57" t="s">
         <v>237</v>
       </c>
-      <c r="G110" s="105" t="s">
+      <c r="G110" s="93" t="s">
         <v>241</v>
       </c>
-      <c r="H110" s="104" t="s">
+      <c r="H110" s="57" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A111" s="67"/>
-      <c r="B111" s="70" t="s">
+      <c r="A111" s="110"/>
+      <c r="B111" s="25" t="s">
         <v>227</v>
       </c>
-      <c r="C111" s="67"/>
-      <c r="D111" s="37" t="s">
+      <c r="C111" s="110"/>
+      <c r="D111" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E111" s="37">
+      <c r="E111" s="17">
         <v>22</v>
       </c>
-      <c r="F111" s="37" t="s">
+      <c r="F111" s="17" t="s">
         <v>237</v>
       </c>
-      <c r="G111" s="106"/>
-      <c r="H111" s="19" t="s">
+      <c r="G111" s="94"/>
+      <c r="H111" s="17" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A112" s="67"/>
-      <c r="B112" s="103" t="s">
+      <c r="A112" s="110"/>
+      <c r="B112" s="73" t="s">
         <v>228</v>
       </c>
-      <c r="C112" s="67"/>
-      <c r="D112" s="104" t="s">
+      <c r="C112" s="110"/>
+      <c r="D112" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="E112" s="104">
+      <c r="E112" s="57">
         <v>13</v>
       </c>
-      <c r="F112" s="104" t="s">
+      <c r="F112" s="57" t="s">
         <v>237</v>
       </c>
-      <c r="G112" s="106"/>
-      <c r="H112" s="104" t="s">
+      <c r="G112" s="94"/>
+      <c r="H112" s="57" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="113" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A113" s="67"/>
-      <c r="B113" s="70" t="s">
+      <c r="A113" s="110"/>
+      <c r="B113" s="25" t="s">
         <v>229</v>
       </c>
-      <c r="C113" s="67"/>
-      <c r="D113" s="37" t="s">
+      <c r="C113" s="110"/>
+      <c r="D113" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E113" s="37">
+      <c r="E113" s="17">
         <v>28</v>
       </c>
-      <c r="F113" s="37" t="s">
+      <c r="F113" s="17" t="s">
         <v>237</v>
       </c>
-      <c r="G113" s="106"/>
-      <c r="H113" s="19" t="s">
+      <c r="G113" s="94"/>
+      <c r="H113" s="17" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="114" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A114" s="67"/>
-      <c r="B114" s="103" t="s">
+      <c r="A114" s="110"/>
+      <c r="B114" s="73" t="s">
         <v>230</v>
       </c>
-      <c r="C114" s="67"/>
-      <c r="D114" s="104" t="s">
+      <c r="C114" s="110"/>
+      <c r="D114" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="E114" s="104">
+      <c r="E114" s="57">
         <v>145</v>
       </c>
-      <c r="F114" s="104" t="s">
+      <c r="F114" s="57" t="s">
         <v>237</v>
       </c>
-      <c r="G114" s="106"/>
-      <c r="H114" s="104" t="s">
+      <c r="G114" s="94"/>
+      <c r="H114" s="57" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="115" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A115" s="67"/>
-      <c r="B115" s="70" t="s">
+      <c r="A115" s="110"/>
+      <c r="B115" s="25" t="s">
         <v>231</v>
       </c>
-      <c r="C115" s="67"/>
-      <c r="D115" s="37" t="s">
+      <c r="C115" s="110"/>
+      <c r="D115" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E115" s="37">
+      <c r="E115" s="17">
         <v>20</v>
       </c>
-      <c r="F115" s="37" t="s">
+      <c r="F115" s="17" t="s">
         <v>237</v>
       </c>
-      <c r="G115" s="106"/>
-      <c r="H115" s="19" t="s">
+      <c r="G115" s="94"/>
+      <c r="H115" s="17" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="116" spans="1:17" ht="14.35" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A116" s="67"/>
-      <c r="B116" s="103" t="s">
+      <c r="A116" s="110"/>
+      <c r="B116" s="73" t="s">
         <v>232</v>
       </c>
-      <c r="C116" s="67"/>
-      <c r="D116" s="104" t="s">
+      <c r="C116" s="110"/>
+      <c r="D116" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="E116" s="104">
+      <c r="E116" s="57">
         <v>16</v>
       </c>
-      <c r="F116" s="104" t="s">
+      <c r="F116" s="57" t="s">
         <v>237</v>
       </c>
-      <c r="G116" s="106" t="s">
+      <c r="G116" s="94" t="s">
         <v>240</v>
       </c>
-      <c r="H116" s="104" t="s">
+      <c r="H116" s="57" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="117" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A117" s="67"/>
-      <c r="B117" s="70" t="s">
+      <c r="A117" s="110"/>
+      <c r="B117" s="25" t="s">
         <v>233</v>
       </c>
-      <c r="C117" s="67"/>
-      <c r="D117" s="37" t="s">
+      <c r="C117" s="110"/>
+      <c r="D117" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E117" s="37">
+      <c r="E117" s="17">
         <v>8</v>
       </c>
-      <c r="F117" s="37" t="s">
+      <c r="F117" s="17" t="s">
         <v>237</v>
       </c>
-      <c r="G117" s="106"/>
-      <c r="H117" s="19" t="s">
+      <c r="G117" s="94"/>
+      <c r="H117" s="17" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="118" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A118" s="67"/>
-      <c r="B118" s="103" t="s">
+      <c r="A118" s="110"/>
+      <c r="B118" s="73" t="s">
         <v>234</v>
       </c>
-      <c r="C118" s="67"/>
-      <c r="D118" s="104" t="s">
+      <c r="C118" s="110"/>
+      <c r="D118" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="E118" s="104">
+      <c r="E118" s="57">
         <v>26</v>
       </c>
-      <c r="F118" s="104" t="s">
+      <c r="F118" s="57" t="s">
         <v>237</v>
       </c>
-      <c r="G118" s="106"/>
-      <c r="H118" s="104" t="s">
+      <c r="G118" s="94"/>
+      <c r="H118" s="57" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="119" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A119" s="67"/>
-      <c r="B119" s="70" t="s">
+      <c r="A119" s="110"/>
+      <c r="B119" s="25" t="s">
         <v>235</v>
       </c>
-      <c r="C119" s="67"/>
-      <c r="D119" s="37" t="s">
+      <c r="C119" s="110"/>
+      <c r="D119" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E119" s="37">
+      <c r="E119" s="17">
         <v>13</v>
       </c>
-      <c r="F119" s="37" t="s">
+      <c r="F119" s="17" t="s">
         <v>237</v>
       </c>
-      <c r="G119" s="106"/>
-      <c r="H119" s="19" t="s">
+      <c r="G119" s="94"/>
+      <c r="H119" s="17" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="120" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A120" s="67"/>
-      <c r="B120" s="103" t="s">
+      <c r="A120" s="110"/>
+      <c r="B120" s="73" t="s">
         <v>236</v>
       </c>
-      <c r="C120" s="67"/>
-      <c r="D120" s="104" t="s">
+      <c r="C120" s="110"/>
+      <c r="D120" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="E120" s="104" t="s">
+      <c r="E120" s="57" t="s">
         <v>239</v>
       </c>
-      <c r="F120" s="104" t="s">
+      <c r="F120" s="57" t="s">
         <v>237</v>
       </c>
-      <c r="G120" s="107"/>
-      <c r="H120" s="104" t="s">
+      <c r="G120" s="95"/>
+      <c r="H120" s="57" t="s">
         <v>125</v>
       </c>
     </row>
@@ -4623,291 +4611,291 @@
       <c r="A122" t="s">
         <v>237</v>
       </c>
-      <c r="B122" s="5" t="s">
+      <c r="B122" t="s">
         <v>238</v>
       </c>
-      <c r="F122" s="114" t="s">
-        <v>346</v>
-      </c>
-      <c r="G122" s="114"/>
-      <c r="I122" s="114" t="s">
-        <v>317</v>
-      </c>
-      <c r="J122" s="114"/>
-      <c r="L122" s="114" t="s">
-        <v>319</v>
-      </c>
-      <c r="M122" s="114"/>
-      <c r="O122" s="114" t="s">
-        <v>320</v>
-      </c>
-      <c r="P122" s="114"/>
-      <c r="Q122" s="114"/>
+      <c r="F122" s="88" t="s">
+        <v>344</v>
+      </c>
+      <c r="G122" s="88"/>
+      <c r="I122" s="88" t="s">
+        <v>369</v>
+      </c>
+      <c r="J122" s="88"/>
+      <c r="L122" s="88" t="s">
+        <v>368</v>
+      </c>
+      <c r="M122" s="88"/>
+      <c r="O122" s="88" t="s">
+        <v>318</v>
+      </c>
+      <c r="P122" s="88"/>
+      <c r="Q122" s="88"/>
     </row>
     <row r="123" spans="1:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A123" t="s">
         <v>308</v>
       </c>
-      <c r="B123" s="7" t="s">
+      <c r="B123" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="F123" s="117" t="s">
+      <c r="F123" s="81" t="s">
+        <v>345</v>
+      </c>
+      <c r="G123" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="I123" s="79" t="s">
+        <v>317</v>
+      </c>
+      <c r="J123" s="80" t="s">
+        <v>110</v>
+      </c>
+      <c r="L123" s="81" t="s">
+        <v>317</v>
+      </c>
+      <c r="M123" s="82" t="s">
+        <v>110</v>
+      </c>
+      <c r="N123" s="1"/>
+      <c r="O123" s="81" t="s">
+        <v>317</v>
+      </c>
+      <c r="P123" s="83" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q123" s="82" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="124" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="F124" s="85">
+        <v>1</v>
+      </c>
+      <c r="G124" s="85" t="s">
+        <v>346</v>
+      </c>
+      <c r="I124" s="84">
+        <v>0</v>
+      </c>
+      <c r="J124" s="84" t="s">
+        <v>6</v>
+      </c>
+      <c r="L124" s="85">
+        <v>0</v>
+      </c>
+      <c r="M124" s="85" t="s">
+        <v>330</v>
+      </c>
+      <c r="N124" s="1"/>
+      <c r="O124" s="85">
+        <v>0</v>
+      </c>
+      <c r="P124" s="85" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q124" s="85" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="125" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="F125" s="18">
+        <v>2</v>
+      </c>
+      <c r="G125" s="18" t="s">
         <v>347</v>
       </c>
-      <c r="G123" s="18" t="s">
-        <v>219</v>
-      </c>
-      <c r="I123" s="115" t="s">
-        <v>318</v>
-      </c>
-      <c r="J123" s="116" t="s">
-        <v>110</v>
-      </c>
-      <c r="L123" s="117" t="s">
-        <v>318</v>
-      </c>
-      <c r="M123" s="118" t="s">
-        <v>110</v>
-      </c>
-      <c r="N123" s="1"/>
-      <c r="O123" s="117" t="s">
-        <v>318</v>
-      </c>
-      <c r="P123" s="119" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q123" s="118" t="s">
+      <c r="I125" s="17">
+        <v>1</v>
+      </c>
+      <c r="J125" s="17" t="s">
+        <v>320</v>
+      </c>
+      <c r="L125" s="18">
+        <v>1</v>
+      </c>
+      <c r="M125" s="18" t="s">
+        <v>331</v>
+      </c>
+      <c r="N125" s="1"/>
+      <c r="O125" s="18">
+        <v>1</v>
+      </c>
+      <c r="P125" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q125" s="18" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="126" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="F126" s="86">
+        <v>3</v>
+      </c>
+      <c r="G126" s="86" t="s">
+        <v>348</v>
+      </c>
+      <c r="I126" s="87">
+        <v>2</v>
+      </c>
+      <c r="J126" s="87" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="124" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="F124" s="121">
-        <v>1</v>
-      </c>
-      <c r="G124" s="121" t="s">
-        <v>348</v>
-      </c>
-      <c r="I124" s="120">
-        <v>0</v>
-      </c>
-      <c r="J124" s="120" t="s">
+      <c r="L126" s="86">
+        <v>2</v>
+      </c>
+      <c r="M126" s="86" t="s">
+        <v>332</v>
+      </c>
+      <c r="N126" s="1"/>
+      <c r="O126" s="86">
+        <v>2</v>
+      </c>
+      <c r="P126" s="86" t="s">
+        <v>338</v>
+      </c>
+      <c r="Q126" s="86" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="127" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="F127" s="18">
+        <v>10</v>
+      </c>
+      <c r="G127" s="18" t="s">
+        <v>349</v>
+      </c>
+      <c r="I127" s="17">
+        <v>3</v>
+      </c>
+      <c r="J127" s="17" t="s">
+        <v>322</v>
+      </c>
+      <c r="L127" s="18">
+        <v>3</v>
+      </c>
+      <c r="M127" s="18" t="s">
+        <v>327</v>
+      </c>
+      <c r="N127" s="1"/>
+      <c r="O127" s="18">
+        <v>3</v>
+      </c>
+      <c r="P127" s="18" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q127" s="18" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="128" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="F128" s="86">
+        <v>15</v>
+      </c>
+      <c r="G128" s="86" t="s">
+        <v>350</v>
+      </c>
+      <c r="I128" s="87">
+        <v>4</v>
+      </c>
+      <c r="J128" s="87" t="s">
+        <v>323</v>
+      </c>
+      <c r="L128" s="86">
+        <v>4</v>
+      </c>
+      <c r="M128" s="86" t="s">
+        <v>333</v>
+      </c>
+      <c r="N128" s="1"/>
+      <c r="O128" s="86">
+        <v>4</v>
+      </c>
+      <c r="P128" s="86" t="s">
+        <v>323</v>
+      </c>
+      <c r="Q128" s="86" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="129" spans="6:17" x14ac:dyDescent="0.45">
+      <c r="F129" s="18">
+        <v>17</v>
+      </c>
+      <c r="G129" s="36" t="s">
+        <v>351</v>
+      </c>
+      <c r="I129" s="17">
+        <v>5</v>
+      </c>
+      <c r="J129" s="17" t="s">
+        <v>324</v>
+      </c>
+      <c r="L129" s="18">
+        <v>5</v>
+      </c>
+      <c r="M129" s="18" t="s">
+        <v>334</v>
+      </c>
+      <c r="N129" s="1"/>
+      <c r="O129" s="18">
+        <v>5</v>
+      </c>
+      <c r="P129" s="18" t="s">
+        <v>324</v>
+      </c>
+      <c r="Q129" s="18" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="130" spans="6:17" x14ac:dyDescent="0.45">
+      <c r="F130" s="86">
+        <v>20</v>
+      </c>
+      <c r="G130" s="86" t="s">
+        <v>352</v>
+      </c>
+      <c r="I130" s="87">
         <v>6</v>
       </c>
-      <c r="L124" s="121">
-        <v>0</v>
-      </c>
-      <c r="M124" s="121" t="s">
-        <v>332</v>
-      </c>
-      <c r="N124" s="1"/>
-      <c r="O124" s="121">
-        <v>0</v>
-      </c>
-      <c r="P124" s="121" t="s">
+      <c r="J130" s="87" t="s">
+        <v>325</v>
+      </c>
+      <c r="L130" s="86">
         <v>6</v>
       </c>
-      <c r="Q124" s="121" t="s">
+      <c r="M130" s="86" t="s">
+        <v>335</v>
+      </c>
+      <c r="N130" s="1"/>
+      <c r="O130" s="86">
+        <v>6</v>
+      </c>
+      <c r="P130" s="86" t="s">
+        <v>340</v>
+      </c>
+      <c r="Q130" s="86" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="125" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="F125" s="20">
-        <v>2</v>
-      </c>
-      <c r="G125" s="20" t="s">
-        <v>349</v>
-      </c>
-      <c r="I125" s="19">
-        <v>1</v>
-      </c>
-      <c r="J125" s="19" t="s">
-        <v>322</v>
-      </c>
-      <c r="L125" s="20">
-        <v>1</v>
-      </c>
-      <c r="M125" s="20" t="s">
-        <v>333</v>
-      </c>
-      <c r="N125" s="1"/>
-      <c r="O125" s="20">
-        <v>1</v>
-      </c>
-      <c r="P125" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q125" s="20" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="126" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="F126" s="122">
-        <v>3</v>
-      </c>
-      <c r="G126" s="122" t="s">
-        <v>350</v>
-      </c>
-      <c r="I126" s="123">
-        <v>2</v>
-      </c>
-      <c r="J126" s="123" t="s">
-        <v>323</v>
-      </c>
-      <c r="L126" s="122">
-        <v>2</v>
-      </c>
-      <c r="M126" s="122" t="s">
-        <v>334</v>
-      </c>
-      <c r="N126" s="1"/>
-      <c r="O126" s="122">
-        <v>2</v>
-      </c>
-      <c r="P126" s="122" t="s">
-        <v>340</v>
-      </c>
-      <c r="Q126" s="122" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="127" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="F127" s="20">
-        <v>10</v>
-      </c>
-      <c r="G127" s="20" t="s">
-        <v>351</v>
-      </c>
-      <c r="I127" s="19">
-        <v>3</v>
-      </c>
-      <c r="J127" s="19" t="s">
-        <v>324</v>
-      </c>
-      <c r="L127" s="20">
-        <v>3</v>
-      </c>
-      <c r="M127" s="20" t="s">
-        <v>329</v>
-      </c>
-      <c r="N127" s="1"/>
-      <c r="O127" s="20">
-        <v>3</v>
-      </c>
-      <c r="P127" s="20" t="s">
-        <v>341</v>
-      </c>
-      <c r="Q127" s="20" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="128" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="F128" s="122">
-        <v>15</v>
-      </c>
-      <c r="G128" s="122" t="s">
-        <v>352</v>
-      </c>
-      <c r="I128" s="123">
-        <v>4</v>
-      </c>
-      <c r="J128" s="123" t="s">
-        <v>325</v>
-      </c>
-      <c r="L128" s="122">
-        <v>4</v>
-      </c>
-      <c r="M128" s="122" t="s">
-        <v>335</v>
-      </c>
-      <c r="N128" s="1"/>
-      <c r="O128" s="122">
-        <v>4</v>
-      </c>
-      <c r="P128" s="122" t="s">
-        <v>325</v>
-      </c>
-      <c r="Q128" s="122" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="129" spans="6:17" x14ac:dyDescent="0.45">
-      <c r="F129" s="20">
-        <v>17</v>
-      </c>
-      <c r="G129" s="71" t="s">
+    <row r="131" spans="6:17" x14ac:dyDescent="0.45">
+      <c r="F131" s="18">
+        <v>23</v>
+      </c>
+      <c r="G131" s="18" t="s">
         <v>353</v>
       </c>
-      <c r="I129" s="19">
-        <v>5</v>
-      </c>
-      <c r="J129" s="19" t="s">
+      <c r="I131" s="17">
+        <v>7</v>
+      </c>
+      <c r="J131" s="17" t="s">
         <v>326</v>
       </c>
-      <c r="L129" s="20">
-        <v>5</v>
-      </c>
-      <c r="M129" s="20" t="s">
+      <c r="L131" s="18">
+        <v>7</v>
+      </c>
+      <c r="M131" s="18" t="s">
         <v>336</v>
-      </c>
-      <c r="N129" s="1"/>
-      <c r="O129" s="20">
-        <v>5</v>
-      </c>
-      <c r="P129" s="20" t="s">
-        <v>326</v>
-      </c>
-      <c r="Q129" s="20" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="130" spans="6:17" x14ac:dyDescent="0.45">
-      <c r="F130" s="122">
-        <v>20</v>
-      </c>
-      <c r="G130" s="122" t="s">
-        <v>354</v>
-      </c>
-      <c r="I130" s="123">
-        <v>6</v>
-      </c>
-      <c r="J130" s="123" t="s">
-        <v>327</v>
-      </c>
-      <c r="L130" s="122">
-        <v>6</v>
-      </c>
-      <c r="M130" s="122" t="s">
-        <v>337</v>
-      </c>
-      <c r="N130" s="1"/>
-      <c r="O130" s="122">
-        <v>6</v>
-      </c>
-      <c r="P130" s="122" t="s">
-        <v>342</v>
-      </c>
-      <c r="Q130" s="122" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="131" spans="6:17" x14ac:dyDescent="0.45">
-      <c r="F131" s="20">
-        <v>23</v>
-      </c>
-      <c r="G131" s="20" t="s">
-        <v>355</v>
-      </c>
-      <c r="I131" s="19">
-        <v>7</v>
-      </c>
-      <c r="J131" s="19" t="s">
-        <v>328</v>
-      </c>
-      <c r="L131" s="20">
-        <v>7</v>
-      </c>
-      <c r="M131" s="20" t="s">
-        <v>338</v>
       </c>
       <c r="N131" s="1"/>
       <c r="O131" s="1"/>
@@ -4915,23 +4903,23 @@
       <c r="Q131" s="1"/>
     </row>
     <row r="132" spans="6:17" x14ac:dyDescent="0.45">
-      <c r="F132" s="122">
+      <c r="F132" s="86">
         <v>24</v>
       </c>
-      <c r="G132" s="122" t="s">
-        <v>356</v>
-      </c>
-      <c r="I132" s="123">
+      <c r="G132" s="86" t="s">
+        <v>354</v>
+      </c>
+      <c r="I132" s="87">
         <v>8</v>
       </c>
-      <c r="J132" s="123" t="s">
-        <v>329</v>
-      </c>
-      <c r="L132" s="122">
+      <c r="J132" s="87" t="s">
+        <v>327</v>
+      </c>
+      <c r="L132" s="86">
         <v>8</v>
       </c>
-      <c r="M132" s="122" t="s">
-        <v>339</v>
+      <c r="M132" s="86" t="s">
+        <v>337</v>
       </c>
       <c r="N132" s="1"/>
       <c r="O132" s="1"/>
@@ -4939,113 +4927,135 @@
       <c r="Q132" s="1"/>
     </row>
     <row r="133" spans="6:17" x14ac:dyDescent="0.45">
-      <c r="F133" s="20">
+      <c r="F133" s="18">
         <v>26</v>
       </c>
-      <c r="G133" s="20" t="s">
+      <c r="G133" s="18" t="s">
+        <v>355</v>
+      </c>
+      <c r="I133" s="17">
+        <v>9</v>
+      </c>
+      <c r="J133" s="17" t="s">
+        <v>328</v>
+      </c>
+      <c r="O133" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="134" spans="6:17" x14ac:dyDescent="0.45">
+      <c r="F134" s="86">
+        <v>27</v>
+      </c>
+      <c r="G134" s="86" t="s">
+        <v>356</v>
+      </c>
+      <c r="I134" s="87">
+        <v>10</v>
+      </c>
+      <c r="J134" s="87" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="135" spans="6:17" x14ac:dyDescent="0.45">
+      <c r="F135" s="18">
+        <v>28</v>
+      </c>
+      <c r="G135" s="18" t="s">
         <v>357</v>
       </c>
-      <c r="I133" s="19">
-        <v>9</v>
-      </c>
-      <c r="J133" s="19" t="s">
-        <v>330</v>
-      </c>
-      <c r="O133" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="134" spans="6:17" x14ac:dyDescent="0.45">
-      <c r="F134" s="122">
-        <v>27</v>
-      </c>
-      <c r="G134" s="122" t="s">
+    </row>
+    <row r="136" spans="6:17" x14ac:dyDescent="0.45">
+      <c r="F136" s="86">
+        <v>29</v>
+      </c>
+      <c r="G136" s="86" t="s">
         <v>358</v>
       </c>
-      <c r="I134" s="123">
-        <v>10</v>
-      </c>
-      <c r="J134" s="123" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="135" spans="6:17" x14ac:dyDescent="0.45">
-      <c r="F135" s="20">
-        <v>28</v>
-      </c>
-      <c r="G135" s="20" t="s">
+    </row>
+    <row r="137" spans="6:17" x14ac:dyDescent="0.45">
+      <c r="F137" s="18">
+        <v>30</v>
+      </c>
+      <c r="G137" s="18" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="136" spans="6:17" x14ac:dyDescent="0.45">
-      <c r="F136" s="122">
-        <v>29</v>
-      </c>
-      <c r="G136" s="122" t="s">
+    <row r="138" spans="6:17" x14ac:dyDescent="0.45">
+      <c r="F138" s="86">
+        <v>40</v>
+      </c>
+      <c r="G138" s="86" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="137" spans="6:17" x14ac:dyDescent="0.45">
-      <c r="F137" s="20">
-        <v>30</v>
-      </c>
-      <c r="G137" s="20" t="s">
+    <row r="139" spans="6:17" x14ac:dyDescent="0.45">
+      <c r="F139" s="18">
+        <v>50</v>
+      </c>
+      <c r="G139" s="18" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="138" spans="6:17" x14ac:dyDescent="0.45">
-      <c r="F138" s="122">
-        <v>40</v>
-      </c>
-      <c r="G138" s="122" t="s">
+    <row r="140" spans="6:17" x14ac:dyDescent="0.45">
+      <c r="F140" s="86">
+        <v>60</v>
+      </c>
+      <c r="G140" s="86" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="139" spans="6:17" x14ac:dyDescent="0.45">
-      <c r="F139" s="20">
-        <v>50</v>
-      </c>
-      <c r="G139" s="20" t="s">
+    <row r="141" spans="6:17" x14ac:dyDescent="0.45">
+      <c r="F141" s="18">
+        <v>69</v>
+      </c>
+      <c r="G141" s="18" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="140" spans="6:17" x14ac:dyDescent="0.45">
-      <c r="F140" s="122">
-        <v>60</v>
-      </c>
-      <c r="G140" s="122" t="s">
+    <row r="142" spans="6:17" x14ac:dyDescent="0.45">
+      <c r="F142" s="86">
+        <v>70</v>
+      </c>
+      <c r="G142" s="86" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="141" spans="6:17" x14ac:dyDescent="0.45">
-      <c r="F141" s="20">
-        <v>69</v>
-      </c>
-      <c r="G141" s="20" t="s">
+    <row r="143" spans="6:17" x14ac:dyDescent="0.45">
+      <c r="F143" s="18">
+        <v>255</v>
+      </c>
+      <c r="G143" s="18" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="142" spans="6:17" x14ac:dyDescent="0.45">
-      <c r="F142" s="122">
-        <v>70</v>
-      </c>
-      <c r="G142" s="122" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="143" spans="6:17" x14ac:dyDescent="0.45">
-      <c r="F143" s="20">
-        <v>255</v>
-      </c>
-      <c r="G143" s="20" t="s">
-        <v>367</v>
-      </c>
-    </row>
     <row r="175" spans="7:7" x14ac:dyDescent="0.45">
-      <c r="G175" s="73"/>
+      <c r="G175" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="A3:A19"/>
+    <mergeCell ref="C3:C19"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="C20:C29"/>
+    <mergeCell ref="A20:A29"/>
+    <mergeCell ref="A52:G52"/>
+    <mergeCell ref="A110:A120"/>
+    <mergeCell ref="C110:C120"/>
+    <mergeCell ref="C30:C40"/>
+    <mergeCell ref="A30:A40"/>
+    <mergeCell ref="C43:C48"/>
+    <mergeCell ref="A43:A48"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="H70:H71"/>
+    <mergeCell ref="C55:C79"/>
+    <mergeCell ref="C80:C109"/>
+    <mergeCell ref="A55:A79"/>
+    <mergeCell ref="A80:A109"/>
+    <mergeCell ref="H72:H79"/>
+    <mergeCell ref="G55:G60"/>
+    <mergeCell ref="H55:H69"/>
     <mergeCell ref="I122:J122"/>
     <mergeCell ref="L122:M122"/>
     <mergeCell ref="O122:Q122"/>
@@ -5055,28 +5065,6 @@
     <mergeCell ref="H102:H109"/>
     <mergeCell ref="G110:G115"/>
     <mergeCell ref="G116:G120"/>
-    <mergeCell ref="H70:H71"/>
-    <mergeCell ref="C55:C79"/>
-    <mergeCell ref="C80:C109"/>
-    <mergeCell ref="A55:A79"/>
-    <mergeCell ref="A80:A109"/>
-    <mergeCell ref="H72:H79"/>
-    <mergeCell ref="G55:G60"/>
-    <mergeCell ref="H55:H69"/>
-    <mergeCell ref="A52:G52"/>
-    <mergeCell ref="A110:A120"/>
-    <mergeCell ref="C110:C120"/>
-    <mergeCell ref="C30:C40"/>
-    <mergeCell ref="A30:A40"/>
-    <mergeCell ref="C43:C48"/>
-    <mergeCell ref="A43:A48"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="A3:A19"/>
-    <mergeCell ref="C3:C19"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="C20:C29"/>
-    <mergeCell ref="A20:A29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
